--- a/modulo1/M1.D8-EsercitazioneFineModulo/RISPOSTE.xlsx
+++ b/modulo1/M1.D8-EsercitazioneFineModulo/RISPOSTE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dfb95c1635c5341/Desktop/M1.D8-EsercitazioneFineModulo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dfb95c1635c5341/Desktop/EPICODE/EPICODE/modulo1/M1.D8-EsercitazioneFineModulo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="137" documentId="8_{B3FFA8EA-142B-427B-9656-DA2018A5E475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD409595-C2D1-4E8C-B22A-EA9FDF7CB7EE}"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,7 +559,7 @@
       </c>
       <c r="D1" s="1">
         <f ca="1">NOW()</f>
-        <v>45045.840414351849</v>
+        <v>45046.605761458333</v>
       </c>
     </row>
   </sheetData>
